--- a/Main/Container.xlsx
+++ b/Main/Container.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\My Drive\Dexterial\Excel\dex-tools\tddt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9EACF33-575B-4743-BC2B-86902A721247}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08006682-A95D-429F-99D4-45EE412DFDA6}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28530" windowHeight="990" activeTab="4" xr2:uid="{E1AE1B42-B639-48AA-A221-CACDB3737A44}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28530" windowHeight="990" xr2:uid="{E1AE1B42-B639-48AA-A221-CACDB3737A44}"/>
   </bookViews>
   <sheets>
     <sheet name="MP_0" sheetId="2" r:id="rId1"/>
-    <sheet name="FP_0" sheetId="4" r:id="rId2"/>
-    <sheet name="RE_0" sheetId="6" r:id="rId3"/>
-    <sheet name="TP_0" sheetId="12" r:id="rId4"/>
-    <sheet name="FR_0" sheetId="13" r:id="rId5"/>
+    <sheet name="FR_0" sheetId="15" r:id="rId2"/>
+    <sheet name="FP_0" sheetId="4" r:id="rId3"/>
+    <sheet name="RE_0" sheetId="6" r:id="rId4"/>
+    <sheet name="TP_0" sheetId="12" r:id="rId5"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -3908,8 +3908,8 @@
   </sheetPr>
   <dimension ref="A1:BL22"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5666,6 +5666,2888 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF6C4997-2CC5-47CE-8E7C-BF04BF621671}">
+  <sheetPr codeName="FR_0">
+    <tabColor theme="6" tint="-0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="A1:BD25"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D56" sqref="D56"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.7109375" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" customWidth="1"/>
+    <col min="6" max="6" width="24" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.5703125" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15" customWidth="1"/>
+    <col min="26" max="26" width="16.42578125" customWidth="1"/>
+    <col min="29" max="29" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="9.140625" style="194"/>
+    <col min="55" max="55" width="10.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="S1" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="T1" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="U1" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="V1" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="W1" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="X1" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y1" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z1" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA1" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB1" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC1" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD1" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE1" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF1" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG1" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="AH1" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI1" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ1" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK1" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL1" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM1" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="AN1" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="AO1" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="AP1" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="AQ1" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="AR1" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="AS1" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="AT1" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="AU1" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="AV1" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="AW1" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="AX1" s="26" t="s">
+        <v>195</v>
+      </c>
+      <c r="AY1" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="AZ1" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="BA1" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="BB1" s="26" t="s">
+        <v>199</v>
+      </c>
+      <c r="BC1" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="BD1" s="26" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="2" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>56</v>
+      </c>
+      <c r="D2" t="s">
+        <v>362</v>
+      </c>
+      <c r="E2" s="189" t="s">
+        <v>364</v>
+      </c>
+      <c r="F2" s="189" t="s">
+        <v>591</v>
+      </c>
+      <c r="G2" s="189" t="s">
+        <v>592</v>
+      </c>
+      <c r="H2" s="189" t="s">
+        <v>593</v>
+      </c>
+      <c r="I2" s="189" t="s">
+        <v>594</v>
+      </c>
+      <c r="J2" s="189" t="s">
+        <v>595</v>
+      </c>
+      <c r="K2" s="189" t="s">
+        <v>596</v>
+      </c>
+      <c r="L2" s="189" t="s">
+        <v>597</v>
+      </c>
+      <c r="M2" s="189" t="s">
+        <v>151</v>
+      </c>
+      <c r="N2" s="189" t="s">
+        <v>598</v>
+      </c>
+      <c r="O2" s="189" t="s">
+        <v>599</v>
+      </c>
+      <c r="P2" s="189" t="s">
+        <v>600</v>
+      </c>
+      <c r="Q2" s="189" t="s">
+        <v>601</v>
+      </c>
+      <c r="R2" s="189" t="s">
+        <v>602</v>
+      </c>
+      <c r="S2" s="189" t="s">
+        <v>603</v>
+      </c>
+      <c r="T2" s="189" t="s">
+        <v>604</v>
+      </c>
+      <c r="U2" s="189" t="s">
+        <v>605</v>
+      </c>
+      <c r="V2" s="189" t="s">
+        <v>606</v>
+      </c>
+      <c r="W2" s="189" t="s">
+        <v>607</v>
+      </c>
+      <c r="X2" s="189" t="s">
+        <v>608</v>
+      </c>
+      <c r="Y2" s="189" t="s">
+        <v>609</v>
+      </c>
+      <c r="Z2" s="189" t="s">
+        <v>610</v>
+      </c>
+      <c r="AA2" s="189" t="s">
+        <v>611</v>
+      </c>
+      <c r="AB2" s="189" t="s">
+        <v>612</v>
+      </c>
+      <c r="AC2" s="189" t="s">
+        <v>613</v>
+      </c>
+      <c r="AD2" s="189" t="s">
+        <v>614</v>
+      </c>
+      <c r="AE2" s="189" t="s">
+        <v>615</v>
+      </c>
+      <c r="AF2" s="189" t="s">
+        <v>616</v>
+      </c>
+      <c r="AG2" s="189" t="s">
+        <v>617</v>
+      </c>
+      <c r="AH2" s="189" t="s">
+        <v>618</v>
+      </c>
+      <c r="AI2" s="189" t="s">
+        <v>619</v>
+      </c>
+      <c r="AJ2" s="189" t="s">
+        <v>620</v>
+      </c>
+      <c r="AK2" s="189" t="s">
+        <v>621</v>
+      </c>
+      <c r="AL2" s="189" t="s">
+        <v>622</v>
+      </c>
+      <c r="AM2" s="189" t="s">
+        <v>623</v>
+      </c>
+      <c r="AN2" s="189" t="s">
+        <v>624</v>
+      </c>
+      <c r="AO2" s="189" t="s">
+        <v>625</v>
+      </c>
+      <c r="AP2" s="189" t="s">
+        <v>626</v>
+      </c>
+      <c r="AQ2" s="189" t="s">
+        <v>87</v>
+      </c>
+      <c r="AR2" s="189" t="s">
+        <v>627</v>
+      </c>
+      <c r="AS2" s="189" t="s">
+        <v>628</v>
+      </c>
+      <c r="AT2" s="189" t="s">
+        <v>629</v>
+      </c>
+      <c r="AU2" s="191" t="s">
+        <v>630</v>
+      </c>
+      <c r="AV2" s="189" t="s">
+        <v>631</v>
+      </c>
+      <c r="AW2" s="189" t="s">
+        <v>632</v>
+      </c>
+      <c r="AX2" s="189" t="s">
+        <v>633</v>
+      </c>
+      <c r="AY2" s="189" t="s">
+        <v>634</v>
+      </c>
+      <c r="AZ2" s="189" t="s">
+        <v>635</v>
+      </c>
+      <c r="BA2" s="189" t="s">
+        <v>636</v>
+      </c>
+      <c r="BB2" s="189" t="s">
+        <v>637</v>
+      </c>
+      <c r="BC2" s="189" t="s">
+        <v>638</v>
+      </c>
+      <c r="BD2" s="189" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="3" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>56</v>
+      </c>
+      <c r="D3" t="s">
+        <v>374</v>
+      </c>
+      <c r="E3" s="190" t="s">
+        <v>364</v>
+      </c>
+      <c r="F3" s="190" t="s">
+        <v>591</v>
+      </c>
+      <c r="G3" s="190" t="s">
+        <v>592</v>
+      </c>
+      <c r="H3" s="190" t="s">
+        <v>593</v>
+      </c>
+      <c r="I3" s="190" t="s">
+        <v>594</v>
+      </c>
+      <c r="J3" s="190" t="s">
+        <v>595</v>
+      </c>
+      <c r="K3" s="190" t="s">
+        <v>596</v>
+      </c>
+      <c r="L3" s="190" t="s">
+        <v>597</v>
+      </c>
+      <c r="M3" s="190" t="s">
+        <v>151</v>
+      </c>
+      <c r="N3" s="190" t="s">
+        <v>598</v>
+      </c>
+      <c r="O3" s="190" t="s">
+        <v>599</v>
+      </c>
+      <c r="P3" s="190" t="s">
+        <v>600</v>
+      </c>
+      <c r="Q3" s="190" t="s">
+        <v>601</v>
+      </c>
+      <c r="R3" s="190" t="s">
+        <v>602</v>
+      </c>
+      <c r="S3" s="190" t="s">
+        <v>603</v>
+      </c>
+      <c r="T3" s="190" t="s">
+        <v>604</v>
+      </c>
+      <c r="U3" s="190" t="s">
+        <v>605</v>
+      </c>
+      <c r="V3" s="190" t="s">
+        <v>606</v>
+      </c>
+      <c r="W3" s="190" t="s">
+        <v>607</v>
+      </c>
+      <c r="X3" s="190" t="s">
+        <v>608</v>
+      </c>
+      <c r="Y3" s="190" t="s">
+        <v>609</v>
+      </c>
+      <c r="Z3" s="190" t="s">
+        <v>610</v>
+      </c>
+      <c r="AA3" s="190" t="s">
+        <v>611</v>
+      </c>
+      <c r="AB3" s="190" t="s">
+        <v>612</v>
+      </c>
+      <c r="AC3" s="190" t="s">
+        <v>613</v>
+      </c>
+      <c r="AD3" s="190" t="s">
+        <v>614</v>
+      </c>
+      <c r="AE3" s="190" t="s">
+        <v>615</v>
+      </c>
+      <c r="AF3" s="190" t="s">
+        <v>616</v>
+      </c>
+      <c r="AG3" s="190" t="s">
+        <v>617</v>
+      </c>
+      <c r="AH3" s="190" t="s">
+        <v>618</v>
+      </c>
+      <c r="AI3" s="190" t="s">
+        <v>619</v>
+      </c>
+      <c r="AJ3" s="190" t="s">
+        <v>620</v>
+      </c>
+      <c r="AK3" s="190" t="s">
+        <v>621</v>
+      </c>
+      <c r="AL3" s="190" t="s">
+        <v>622</v>
+      </c>
+      <c r="AM3" s="190" t="s">
+        <v>623</v>
+      </c>
+      <c r="AN3" s="190" t="s">
+        <v>624</v>
+      </c>
+      <c r="AO3" s="190" t="s">
+        <v>625</v>
+      </c>
+      <c r="AP3" s="190" t="s">
+        <v>626</v>
+      </c>
+      <c r="AQ3" s="190" t="s">
+        <v>87</v>
+      </c>
+      <c r="AR3" s="190" t="s">
+        <v>627</v>
+      </c>
+      <c r="AS3" s="190" t="s">
+        <v>628</v>
+      </c>
+      <c r="AT3" s="192" t="s">
+        <v>629</v>
+      </c>
+      <c r="AU3" s="193" t="s">
+        <v>630</v>
+      </c>
+      <c r="AV3" s="192" t="s">
+        <v>631</v>
+      </c>
+      <c r="AW3" s="190" t="s">
+        <v>632</v>
+      </c>
+      <c r="AX3" s="190" t="s">
+        <v>633</v>
+      </c>
+      <c r="AY3" s="190" t="s">
+        <v>634</v>
+      </c>
+      <c r="AZ3" s="190" t="s">
+        <v>635</v>
+      </c>
+      <c r="BA3" s="190" t="s">
+        <v>636</v>
+      </c>
+      <c r="BB3" s="190" t="s">
+        <v>637</v>
+      </c>
+      <c r="BC3" s="189" t="s">
+        <v>638</v>
+      </c>
+      <c r="BD3" s="190" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="4" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>56</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" ref="D4:D18" si="0">"def_0_" &amp;E4</f>
+        <v>def_0_UserForm</v>
+      </c>
+      <c r="E4" t="s">
+        <v>640</v>
+      </c>
+      <c r="F4" t="s">
+        <v>641</v>
+      </c>
+      <c r="G4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K4" t="b">
+        <v>1</v>
+      </c>
+      <c r="L4" t="b">
+        <v>1</v>
+      </c>
+      <c r="M4" t="b">
+        <v>1</v>
+      </c>
+      <c r="N4" t="b">
+        <v>1</v>
+      </c>
+      <c r="O4" t="b">
+        <v>1</v>
+      </c>
+      <c r="P4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q4" t="b">
+        <v>1</v>
+      </c>
+      <c r="R4" t="b">
+        <v>1</v>
+      </c>
+      <c r="S4" t="b">
+        <v>1</v>
+      </c>
+      <c r="T4" t="b">
+        <v>1</v>
+      </c>
+      <c r="X4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT4" s="192" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU4" s="194" t="b">
+        <v>1</v>
+      </c>
+      <c r="AV4" s="192" t="b">
+        <v>1</v>
+      </c>
+      <c r="AW4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX4" t="b">
+        <v>1</v>
+      </c>
+      <c r="BC4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>56</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v>def_0_CheckBox</v>
+      </c>
+      <c r="E5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F5" t="s">
+        <v>642</v>
+      </c>
+      <c r="G5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K5" t="b">
+        <v>1</v>
+      </c>
+      <c r="L5" t="b">
+        <v>1</v>
+      </c>
+      <c r="M5" t="b">
+        <v>1</v>
+      </c>
+      <c r="N5" t="b">
+        <v>1</v>
+      </c>
+      <c r="O5" t="b">
+        <v>1</v>
+      </c>
+      <c r="P5" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="b">
+        <v>1</v>
+      </c>
+      <c r="R5" t="b">
+        <v>1</v>
+      </c>
+      <c r="S5" t="b">
+        <v>1</v>
+      </c>
+      <c r="T5" t="b">
+        <v>1</v>
+      </c>
+      <c r="U5" t="b">
+        <v>1</v>
+      </c>
+      <c r="V5" t="b">
+        <v>1</v>
+      </c>
+      <c r="W5" t="b">
+        <v>1</v>
+      </c>
+      <c r="X5" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y5" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z5" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC5" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD5" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE5" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF5" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG5" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH5" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI5" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ5" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL5" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN5" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO5" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ5" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR5" t="b">
+        <v>1</v>
+      </c>
+      <c r="AS5" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT5" s="192" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU5" s="194" t="b">
+        <v>1</v>
+      </c>
+      <c r="AV5" s="192" t="b">
+        <v>1</v>
+      </c>
+      <c r="AW5" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX5" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY5" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ5" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA5" t="b">
+        <v>1</v>
+      </c>
+      <c r="BB5" t="b">
+        <v>1</v>
+      </c>
+      <c r="BC5" t="b">
+        <v>1</v>
+      </c>
+      <c r="BD5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>56</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v>def_0_ComboBox</v>
+      </c>
+      <c r="E6" t="s">
+        <v>93</v>
+      </c>
+      <c r="F6" t="s">
+        <v>643</v>
+      </c>
+      <c r="G6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J6" t="b">
+        <v>1</v>
+      </c>
+      <c r="K6" t="b">
+        <v>1</v>
+      </c>
+      <c r="L6" t="b">
+        <v>1</v>
+      </c>
+      <c r="M6" t="b">
+        <v>1</v>
+      </c>
+      <c r="N6" t="b">
+        <v>1</v>
+      </c>
+      <c r="O6" t="b">
+        <v>1</v>
+      </c>
+      <c r="P6" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="b">
+        <v>1</v>
+      </c>
+      <c r="R6" t="b">
+        <v>1</v>
+      </c>
+      <c r="S6" t="b">
+        <v>1</v>
+      </c>
+      <c r="T6" t="b">
+        <v>1</v>
+      </c>
+      <c r="W6" t="b">
+        <v>1</v>
+      </c>
+      <c r="X6" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y6" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AP6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT6" s="192" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU6" s="194" t="b">
+        <v>1</v>
+      </c>
+      <c r="AV6" s="192" t="b">
+        <v>1</v>
+      </c>
+      <c r="AW6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ6" t="b">
+        <v>1</v>
+      </c>
+      <c r="BC6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>56</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v>def_0_CommandButton</v>
+      </c>
+      <c r="E7" t="s">
+        <v>644</v>
+      </c>
+      <c r="F7" t="s">
+        <v>645</v>
+      </c>
+      <c r="G7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" t="b">
+        <v>1</v>
+      </c>
+      <c r="I7" t="b">
+        <v>1</v>
+      </c>
+      <c r="J7" t="b">
+        <v>1</v>
+      </c>
+      <c r="K7" t="b">
+        <v>1</v>
+      </c>
+      <c r="L7" t="b">
+        <v>1</v>
+      </c>
+      <c r="M7" t="b">
+        <v>1</v>
+      </c>
+      <c r="N7" t="b">
+        <v>1</v>
+      </c>
+      <c r="O7" t="b">
+        <v>1</v>
+      </c>
+      <c r="P7" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="b">
+        <v>1</v>
+      </c>
+      <c r="R7" t="b">
+        <v>1</v>
+      </c>
+      <c r="S7" t="b">
+        <v>1</v>
+      </c>
+      <c r="T7" t="b">
+        <v>1</v>
+      </c>
+      <c r="U7" t="b">
+        <v>1</v>
+      </c>
+      <c r="W7" t="b">
+        <v>1</v>
+      </c>
+      <c r="X7" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y7" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AS7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT7" s="192" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU7" s="194" t="b">
+        <v>1</v>
+      </c>
+      <c r="AV7" s="192" t="b">
+        <v>1</v>
+      </c>
+      <c r="AW7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ7" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA7" t="b">
+        <v>1</v>
+      </c>
+      <c r="BB7" t="b">
+        <v>1</v>
+      </c>
+      <c r="BC7" t="b">
+        <v>1</v>
+      </c>
+      <c r="BD7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>56</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="0"/>
+        <v>def_0_Frame</v>
+      </c>
+      <c r="E8" t="s">
+        <v>646</v>
+      </c>
+      <c r="F8" t="s">
+        <v>647</v>
+      </c>
+      <c r="J8" t="b">
+        <v>1</v>
+      </c>
+      <c r="K8" t="b">
+        <v>1</v>
+      </c>
+      <c r="M8" t="b">
+        <v>1</v>
+      </c>
+      <c r="N8" t="b">
+        <v>1</v>
+      </c>
+      <c r="O8" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="b">
+        <v>1</v>
+      </c>
+      <c r="R8" t="b">
+        <v>1</v>
+      </c>
+      <c r="S8" t="b">
+        <v>1</v>
+      </c>
+      <c r="T8" t="b">
+        <v>1</v>
+      </c>
+      <c r="X8" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT8" s="192"/>
+      <c r="AU8" s="194" t="b">
+        <v>1</v>
+      </c>
+      <c r="AV8" s="192"/>
+      <c r="AW8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ8" t="b">
+        <v>1</v>
+      </c>
+      <c r="BC8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>56</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="0"/>
+        <v>def_0_Image</v>
+      </c>
+      <c r="E9" t="s">
+        <v>648</v>
+      </c>
+      <c r="F9" t="s">
+        <v>649</v>
+      </c>
+      <c r="G9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O9" t="b">
+        <v>1</v>
+      </c>
+      <c r="P9" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="b">
+        <v>1</v>
+      </c>
+      <c r="R9" t="b">
+        <v>1</v>
+      </c>
+      <c r="S9" t="b">
+        <v>1</v>
+      </c>
+      <c r="T9" t="b">
+        <v>1</v>
+      </c>
+      <c r="W9" t="b">
+        <v>1</v>
+      </c>
+      <c r="X9" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y9" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA9" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB9" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD9" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF9" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG9" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH9" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI9" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL9" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN9" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO9" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ9" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT9" s="192" t="b">
+        <v>1</v>
+      </c>
+      <c r="AV9" s="192" t="b">
+        <v>1</v>
+      </c>
+      <c r="AW9" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX9" t="b">
+        <v>1</v>
+      </c>
+      <c r="BC9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>56</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="0"/>
+        <v>def_0_Label</v>
+      </c>
+      <c r="E10" t="s">
+        <v>95</v>
+      </c>
+      <c r="F10" t="s">
+        <v>650</v>
+      </c>
+      <c r="G10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" t="b">
+        <v>1</v>
+      </c>
+      <c r="J10" t="b">
+        <v>1</v>
+      </c>
+      <c r="K10" t="b">
+        <v>1</v>
+      </c>
+      <c r="L10" t="b">
+        <v>1</v>
+      </c>
+      <c r="M10" t="b">
+        <v>1</v>
+      </c>
+      <c r="N10" t="b">
+        <v>1</v>
+      </c>
+      <c r="O10" t="b">
+        <v>1</v>
+      </c>
+      <c r="P10" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="b">
+        <v>1</v>
+      </c>
+      <c r="R10" t="b">
+        <v>1</v>
+      </c>
+      <c r="S10" t="b">
+        <v>1</v>
+      </c>
+      <c r="T10" t="b">
+        <v>1</v>
+      </c>
+      <c r="U10" t="b">
+        <v>1</v>
+      </c>
+      <c r="W10" t="b">
+        <v>1</v>
+      </c>
+      <c r="X10" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y10" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AS10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT10" s="192" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU10" s="194" t="b">
+        <v>1</v>
+      </c>
+      <c r="AV10" s="192" t="b">
+        <v>1</v>
+      </c>
+      <c r="AW10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY10" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA10" t="b">
+        <v>1</v>
+      </c>
+      <c r="BB10" t="b">
+        <v>1</v>
+      </c>
+      <c r="BC10" t="b">
+        <v>1</v>
+      </c>
+      <c r="BD10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>56</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="0"/>
+        <v>def_0_ListBox</v>
+      </c>
+      <c r="E11" t="s">
+        <v>651</v>
+      </c>
+      <c r="F11" t="s">
+        <v>652</v>
+      </c>
+      <c r="J11" t="b">
+        <v>1</v>
+      </c>
+      <c r="K11" t="b">
+        <v>1</v>
+      </c>
+      <c r="M11" t="b">
+        <v>1</v>
+      </c>
+      <c r="N11" t="b">
+        <v>1</v>
+      </c>
+      <c r="O11" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q11" t="b">
+        <v>1</v>
+      </c>
+      <c r="R11" t="b">
+        <v>1</v>
+      </c>
+      <c r="S11" t="b">
+        <v>1</v>
+      </c>
+      <c r="T11" t="b">
+        <v>1</v>
+      </c>
+      <c r="X11" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AP11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT11" s="192"/>
+      <c r="AU11" s="194" t="b">
+        <v>1</v>
+      </c>
+      <c r="AV11" s="192"/>
+      <c r="AW11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ11" t="b">
+        <v>1</v>
+      </c>
+      <c r="BC11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>56</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="0"/>
+        <v>def_0_MultiPage</v>
+      </c>
+      <c r="E12" t="s">
+        <v>653</v>
+      </c>
+      <c r="F12" t="s">
+        <v>654</v>
+      </c>
+      <c r="I12" t="b">
+        <v>1</v>
+      </c>
+      <c r="J12" t="b">
+        <v>1</v>
+      </c>
+      <c r="K12" t="b">
+        <v>1</v>
+      </c>
+      <c r="M12" t="b">
+        <v>1</v>
+      </c>
+      <c r="N12" t="b">
+        <v>1</v>
+      </c>
+      <c r="O12" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q12" t="b">
+        <v>1</v>
+      </c>
+      <c r="R12" t="b">
+        <v>1</v>
+      </c>
+      <c r="S12" t="b">
+        <v>1</v>
+      </c>
+      <c r="T12" t="b">
+        <v>1</v>
+      </c>
+      <c r="X12" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z12" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD12" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ12" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT12" s="192"/>
+      <c r="AU12" s="194" t="b">
+        <v>1</v>
+      </c>
+      <c r="AV12" s="192"/>
+      <c r="AY12" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ12" t="b">
+        <v>1</v>
+      </c>
+      <c r="BC12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <v>56</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="0"/>
+        <v>def_0_OptionButton</v>
+      </c>
+      <c r="E13" t="s">
+        <v>655</v>
+      </c>
+      <c r="F13" t="s">
+        <v>656</v>
+      </c>
+      <c r="I13" t="b">
+        <v>1</v>
+      </c>
+      <c r="J13" t="b">
+        <v>1</v>
+      </c>
+      <c r="K13" t="b">
+        <v>1</v>
+      </c>
+      <c r="M13" t="b">
+        <v>1</v>
+      </c>
+      <c r="N13" t="b">
+        <v>1</v>
+      </c>
+      <c r="O13" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q13" t="b">
+        <v>1</v>
+      </c>
+      <c r="R13" t="b">
+        <v>1</v>
+      </c>
+      <c r="S13" t="b">
+        <v>1</v>
+      </c>
+      <c r="T13" t="b">
+        <v>1</v>
+      </c>
+      <c r="U13" t="b">
+        <v>1</v>
+      </c>
+      <c r="V13" t="b">
+        <v>1</v>
+      </c>
+      <c r="W13" t="b">
+        <v>1</v>
+      </c>
+      <c r="X13" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y13" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z13" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC13" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD13" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE13" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF13" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG13" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH13" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI13" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ13" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ13" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR13" t="b">
+        <v>1</v>
+      </c>
+      <c r="AS13" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT13" s="192"/>
+      <c r="AU13" s="194" t="b">
+        <v>1</v>
+      </c>
+      <c r="AV13" s="192"/>
+      <c r="AW13" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX13" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY13" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ13" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA13" t="b">
+        <v>1</v>
+      </c>
+      <c r="BB13" t="b">
+        <v>1</v>
+      </c>
+      <c r="BC13" t="b">
+        <v>1</v>
+      </c>
+      <c r="BD13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <v>56</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="0"/>
+        <v>def_0_ScrollBar</v>
+      </c>
+      <c r="E14" t="s">
+        <v>657</v>
+      </c>
+      <c r="F14" t="s">
+        <v>658</v>
+      </c>
+      <c r="I14" t="b">
+        <v>1</v>
+      </c>
+      <c r="J14" t="b">
+        <v>1</v>
+      </c>
+      <c r="K14" t="b">
+        <v>1</v>
+      </c>
+      <c r="M14" t="b">
+        <v>1</v>
+      </c>
+      <c r="N14" t="b">
+        <v>1</v>
+      </c>
+      <c r="O14" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q14" t="b">
+        <v>1</v>
+      </c>
+      <c r="R14" t="b">
+        <v>1</v>
+      </c>
+      <c r="S14" t="b">
+        <v>1</v>
+      </c>
+      <c r="T14" t="b">
+        <v>1</v>
+      </c>
+      <c r="X14" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z14" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD14" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE14" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ14" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT14" s="192"/>
+      <c r="AU14" s="194" t="b">
+        <v>1</v>
+      </c>
+      <c r="AV14" s="192"/>
+      <c r="AW14" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY14" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ14" t="b">
+        <v>1</v>
+      </c>
+      <c r="BC14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>5</v>
+      </c>
+      <c r="C15">
+        <v>56</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="0"/>
+        <v>def_0_SpinButton</v>
+      </c>
+      <c r="E15" t="s">
+        <v>659</v>
+      </c>
+      <c r="F15" t="s">
+        <v>660</v>
+      </c>
+      <c r="I15" t="b">
+        <v>1</v>
+      </c>
+      <c r="J15" t="b">
+        <v>1</v>
+      </c>
+      <c r="K15" t="b">
+        <v>1</v>
+      </c>
+      <c r="M15" t="b">
+        <v>1</v>
+      </c>
+      <c r="N15" t="b">
+        <v>1</v>
+      </c>
+      <c r="O15" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q15" t="b">
+        <v>1</v>
+      </c>
+      <c r="R15" t="b">
+        <v>1</v>
+      </c>
+      <c r="S15" t="b">
+        <v>1</v>
+      </c>
+      <c r="T15" t="b">
+        <v>1</v>
+      </c>
+      <c r="X15" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT15" s="192"/>
+      <c r="AU15" s="194" t="b">
+        <v>1</v>
+      </c>
+      <c r="AV15" s="192"/>
+      <c r="AW15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ15" t="b">
+        <v>1</v>
+      </c>
+      <c r="BC15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>56</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="0"/>
+        <v>def_0_TabStrip</v>
+      </c>
+      <c r="E16" t="s">
+        <v>661</v>
+      </c>
+      <c r="F16" t="s">
+        <v>662</v>
+      </c>
+      <c r="I16" t="b">
+        <v>1</v>
+      </c>
+      <c r="J16" t="b">
+        <v>1</v>
+      </c>
+      <c r="K16" t="b">
+        <v>1</v>
+      </c>
+      <c r="M16" t="b">
+        <v>1</v>
+      </c>
+      <c r="N16" t="b">
+        <v>1</v>
+      </c>
+      <c r="O16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q16" t="b">
+        <v>1</v>
+      </c>
+      <c r="R16" t="b">
+        <v>1</v>
+      </c>
+      <c r="S16" t="b">
+        <v>1</v>
+      </c>
+      <c r="T16" t="b">
+        <v>1</v>
+      </c>
+      <c r="X16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT16" s="192"/>
+      <c r="AU16" s="194" t="b">
+        <v>1</v>
+      </c>
+      <c r="AV16" s="192"/>
+      <c r="AW16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ16" t="b">
+        <v>1</v>
+      </c>
+      <c r="BC16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:56" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17"/>
+      <c r="B17">
+        <v>5</v>
+      </c>
+      <c r="C17">
+        <v>56</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="0"/>
+        <v>def_0_TextBox</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>663</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>664</v>
+      </c>
+      <c r="G17" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="I17" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="J17" t="b">
+        <v>1</v>
+      </c>
+      <c r="K17" t="b">
+        <v>1</v>
+      </c>
+      <c r="L17" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="M17" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="N17" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="O17" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="P17" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="R17" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="S17" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="T17" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="W17" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="X17" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y17" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z17" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA17" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB17" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD17" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE17" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG17" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH17" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI17" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL17" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN17" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO17" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ17" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR17" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AS17" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT17" s="192" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU17" s="195" t="b">
+        <v>1</v>
+      </c>
+      <c r="AV17" s="192" t="b">
+        <v>1</v>
+      </c>
+      <c r="AW17" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX17" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY17" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ17" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA17" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="BB17" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="BC17" t="b">
+        <v>1</v>
+      </c>
+      <c r="BD17" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="C18">
+        <v>56</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="0"/>
+        <v>def_0_ToggleButton</v>
+      </c>
+      <c r="E18" t="s">
+        <v>665</v>
+      </c>
+      <c r="F18" t="s">
+        <v>666</v>
+      </c>
+      <c r="I18" t="b">
+        <v>1</v>
+      </c>
+      <c r="J18" t="b">
+        <v>1</v>
+      </c>
+      <c r="K18" t="b">
+        <v>1</v>
+      </c>
+      <c r="M18" t="b">
+        <v>1</v>
+      </c>
+      <c r="N18" t="b">
+        <v>1</v>
+      </c>
+      <c r="O18" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q18" t="b">
+        <v>1</v>
+      </c>
+      <c r="R18" t="b">
+        <v>1</v>
+      </c>
+      <c r="S18" t="b">
+        <v>1</v>
+      </c>
+      <c r="T18" t="b">
+        <v>1</v>
+      </c>
+      <c r="U18" t="b">
+        <v>1</v>
+      </c>
+      <c r="W18" t="b">
+        <v>1</v>
+      </c>
+      <c r="X18" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y18" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AS18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT18" s="192"/>
+      <c r="AU18" s="194" t="b">
+        <v>1</v>
+      </c>
+      <c r="AV18" s="192"/>
+      <c r="AW18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ18" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA18" t="b">
+        <v>1</v>
+      </c>
+      <c r="BB18" t="b">
+        <v>1</v>
+      </c>
+      <c r="BC18" t="b">
+        <v>1</v>
+      </c>
+      <c r="BD18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:56" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>5</v>
+      </c>
+      <c r="C19">
+        <v>56</v>
+      </c>
+      <c r="D19" t="s">
+        <v>144</v>
+      </c>
+      <c r="E19" s="197" t="s">
+        <v>364</v>
+      </c>
+      <c r="F19" s="197" t="s">
+        <v>591</v>
+      </c>
+      <c r="G19" s="197" t="s">
+        <v>592</v>
+      </c>
+      <c r="H19" s="197" t="s">
+        <v>593</v>
+      </c>
+      <c r="I19" s="197" t="s">
+        <v>594</v>
+      </c>
+      <c r="J19" s="197" t="s">
+        <v>595</v>
+      </c>
+      <c r="K19" s="197" t="s">
+        <v>596</v>
+      </c>
+      <c r="L19" s="197" t="s">
+        <v>597</v>
+      </c>
+      <c r="M19" s="197" t="s">
+        <v>151</v>
+      </c>
+      <c r="N19" s="197" t="s">
+        <v>598</v>
+      </c>
+      <c r="O19" s="197" t="s">
+        <v>599</v>
+      </c>
+      <c r="P19" s="197" t="s">
+        <v>600</v>
+      </c>
+      <c r="Q19" s="197" t="s">
+        <v>601</v>
+      </c>
+      <c r="R19" s="197" t="s">
+        <v>602</v>
+      </c>
+      <c r="S19" s="197" t="s">
+        <v>603</v>
+      </c>
+      <c r="T19" s="197" t="s">
+        <v>604</v>
+      </c>
+      <c r="U19" s="197" t="s">
+        <v>605</v>
+      </c>
+      <c r="V19" s="197" t="s">
+        <v>606</v>
+      </c>
+      <c r="W19" s="197" t="s">
+        <v>607</v>
+      </c>
+      <c r="X19" s="197" t="s">
+        <v>608</v>
+      </c>
+      <c r="Y19" s="197" t="s">
+        <v>609</v>
+      </c>
+      <c r="Z19" s="197" t="s">
+        <v>610</v>
+      </c>
+      <c r="AA19" s="197" t="s">
+        <v>611</v>
+      </c>
+      <c r="AB19" s="197" t="s">
+        <v>612</v>
+      </c>
+      <c r="AC19" s="197" t="s">
+        <v>613</v>
+      </c>
+      <c r="AD19" s="197" t="s">
+        <v>614</v>
+      </c>
+      <c r="AE19" s="197" t="s">
+        <v>615</v>
+      </c>
+      <c r="AF19" s="197" t="s">
+        <v>616</v>
+      </c>
+      <c r="AG19" s="197" t="s">
+        <v>617</v>
+      </c>
+      <c r="AH19" s="197" t="s">
+        <v>618</v>
+      </c>
+      <c r="AI19" s="197" t="s">
+        <v>619</v>
+      </c>
+      <c r="AJ19" s="197" t="s">
+        <v>620</v>
+      </c>
+      <c r="AK19" s="197" t="s">
+        <v>621</v>
+      </c>
+      <c r="AL19" s="197" t="s">
+        <v>622</v>
+      </c>
+      <c r="AM19" s="197" t="s">
+        <v>623</v>
+      </c>
+      <c r="AN19" s="197" t="s">
+        <v>624</v>
+      </c>
+      <c r="AO19" s="197" t="s">
+        <v>625</v>
+      </c>
+      <c r="AP19" s="197" t="s">
+        <v>626</v>
+      </c>
+      <c r="AQ19" s="197" t="s">
+        <v>87</v>
+      </c>
+      <c r="AR19" s="197" t="s">
+        <v>627</v>
+      </c>
+      <c r="AS19" s="197" t="s">
+        <v>628</v>
+      </c>
+      <c r="AT19" s="197" t="s">
+        <v>629</v>
+      </c>
+      <c r="AU19" s="198" t="s">
+        <v>630</v>
+      </c>
+      <c r="AV19" s="197" t="s">
+        <v>631</v>
+      </c>
+      <c r="AW19" s="197" t="s">
+        <v>632</v>
+      </c>
+      <c r="AX19" s="197" t="s">
+        <v>633</v>
+      </c>
+      <c r="AY19" s="197" t="s">
+        <v>634</v>
+      </c>
+      <c r="AZ19" s="197" t="s">
+        <v>635</v>
+      </c>
+      <c r="BA19" s="197" t="s">
+        <v>636</v>
+      </c>
+      <c r="BB19" s="197" t="s">
+        <v>637</v>
+      </c>
+      <c r="BC19" s="197" t="s">
+        <v>638</v>
+      </c>
+      <c r="BD19" s="197" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="20" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>5</v>
+      </c>
+      <c r="C20">
+        <v>56</v>
+      </c>
+      <c r="D20" t="s">
+        <v>124</v>
+      </c>
+      <c r="E20" s="190" t="s">
+        <v>364</v>
+      </c>
+      <c r="F20" s="190" t="s">
+        <v>591</v>
+      </c>
+      <c r="G20" s="190" t="s">
+        <v>592</v>
+      </c>
+      <c r="H20" s="190" t="s">
+        <v>593</v>
+      </c>
+      <c r="I20" s="190" t="s">
+        <v>594</v>
+      </c>
+      <c r="J20" s="190" t="s">
+        <v>595</v>
+      </c>
+      <c r="K20" s="190" t="s">
+        <v>596</v>
+      </c>
+      <c r="L20" s="190" t="s">
+        <v>597</v>
+      </c>
+      <c r="M20" s="190" t="s">
+        <v>151</v>
+      </c>
+      <c r="N20" s="190" t="s">
+        <v>598</v>
+      </c>
+      <c r="O20" s="190" t="s">
+        <v>599</v>
+      </c>
+      <c r="P20" s="190" t="s">
+        <v>600</v>
+      </c>
+      <c r="Q20" s="190" t="s">
+        <v>601</v>
+      </c>
+      <c r="R20" s="190" t="s">
+        <v>602</v>
+      </c>
+      <c r="S20" s="190" t="s">
+        <v>603</v>
+      </c>
+      <c r="T20" s="190" t="s">
+        <v>604</v>
+      </c>
+      <c r="U20" s="190" t="s">
+        <v>605</v>
+      </c>
+      <c r="V20" s="190" t="s">
+        <v>606</v>
+      </c>
+      <c r="W20" s="190" t="s">
+        <v>607</v>
+      </c>
+      <c r="X20" s="190" t="s">
+        <v>608</v>
+      </c>
+      <c r="Y20" s="190" t="s">
+        <v>609</v>
+      </c>
+      <c r="Z20" s="190" t="s">
+        <v>610</v>
+      </c>
+      <c r="AA20" s="190" t="s">
+        <v>611</v>
+      </c>
+      <c r="AB20" s="190" t="s">
+        <v>612</v>
+      </c>
+      <c r="AC20" s="190" t="s">
+        <v>613</v>
+      </c>
+      <c r="AD20" s="190" t="s">
+        <v>614</v>
+      </c>
+      <c r="AE20" s="190" t="s">
+        <v>615</v>
+      </c>
+      <c r="AF20" s="190" t="s">
+        <v>616</v>
+      </c>
+      <c r="AG20" s="190" t="s">
+        <v>617</v>
+      </c>
+      <c r="AH20" s="190" t="s">
+        <v>618</v>
+      </c>
+      <c r="AI20" s="190" t="s">
+        <v>619</v>
+      </c>
+      <c r="AJ20" s="190" t="s">
+        <v>620</v>
+      </c>
+      <c r="AK20" s="190" t="s">
+        <v>621</v>
+      </c>
+      <c r="AL20" s="190" t="s">
+        <v>622</v>
+      </c>
+      <c r="AM20" s="190" t="s">
+        <v>623</v>
+      </c>
+      <c r="AN20" s="190" t="s">
+        <v>624</v>
+      </c>
+      <c r="AO20" s="190" t="s">
+        <v>625</v>
+      </c>
+      <c r="AP20" s="190" t="s">
+        <v>626</v>
+      </c>
+      <c r="AQ20" s="190" t="s">
+        <v>87</v>
+      </c>
+      <c r="AR20" s="190" t="s">
+        <v>627</v>
+      </c>
+      <c r="AS20" s="190" t="s">
+        <v>628</v>
+      </c>
+      <c r="AT20" s="190" t="s">
+        <v>629</v>
+      </c>
+      <c r="AU20" s="193" t="s">
+        <v>630</v>
+      </c>
+      <c r="AV20" s="190" t="s">
+        <v>631</v>
+      </c>
+      <c r="AW20" s="190" t="s">
+        <v>632</v>
+      </c>
+      <c r="AX20" s="190" t="s">
+        <v>633</v>
+      </c>
+      <c r="AY20" s="190" t="s">
+        <v>634</v>
+      </c>
+      <c r="AZ20" s="190" t="s">
+        <v>635</v>
+      </c>
+      <c r="BA20" s="190" t="s">
+        <v>636</v>
+      </c>
+      <c r="BB20" s="190" t="s">
+        <v>637</v>
+      </c>
+      <c r="BC20" s="189" t="s">
+        <v>638</v>
+      </c>
+      <c r="BD20" s="190" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="21" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>5</v>
+      </c>
+      <c r="C21">
+        <v>52</v>
+      </c>
+      <c r="D21" t="s">
+        <v>667</v>
+      </c>
+      <c r="E21" t="s">
+        <v>640</v>
+      </c>
+      <c r="F21" t="s">
+        <v>641</v>
+      </c>
+      <c r="G21" t="s">
+        <v>668</v>
+      </c>
+      <c r="J21" t="s">
+        <v>669</v>
+      </c>
+      <c r="N21" t="s">
+        <v>668</v>
+      </c>
+      <c r="O21" t="b">
+        <v>1</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>960</v>
+      </c>
+      <c r="T21">
+        <v>640</v>
+      </c>
+      <c r="AA21">
+        <v>-2147483630</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>670</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>671</v>
+      </c>
+      <c r="AH21">
+        <v>1</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
+      </c>
+      <c r="AQ21" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>5</v>
+      </c>
+      <c r="C22">
+        <v>52</v>
+      </c>
+      <c r="D22" t="s">
+        <v>672</v>
+      </c>
+      <c r="E22" t="s">
+        <v>640</v>
+      </c>
+      <c r="F22" t="s">
+        <v>641</v>
+      </c>
+      <c r="G22" t="s">
+        <v>673</v>
+      </c>
+      <c r="J22" t="s">
+        <v>669</v>
+      </c>
+      <c r="N22" t="s">
+        <v>673</v>
+      </c>
+      <c r="O22" t="b">
+        <v>1</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>480</v>
+      </c>
+      <c r="T22">
+        <v>640</v>
+      </c>
+      <c r="AA22">
+        <v>-2147483630</v>
+      </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>674</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>675</v>
+      </c>
+      <c r="AH22">
+        <v>1</v>
+      </c>
+      <c r="AI22">
+        <v>0</v>
+      </c>
+      <c r="AQ22" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>5</v>
+      </c>
+      <c r="C23">
+        <v>52</v>
+      </c>
+      <c r="D23" t="s">
+        <v>676</v>
+      </c>
+      <c r="E23" t="s">
+        <v>95</v>
+      </c>
+      <c r="F23" t="s">
+        <v>650</v>
+      </c>
+      <c r="G23" t="s">
+        <v>673</v>
+      </c>
+      <c r="H23" t="s">
+        <v>673</v>
+      </c>
+      <c r="M23" t="s">
+        <v>677</v>
+      </c>
+      <c r="N23" t="s">
+        <v>677</v>
+      </c>
+      <c r="O23" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q23">
+        <v>37</v>
+      </c>
+      <c r="R23">
+        <v>8</v>
+      </c>
+      <c r="S23">
+        <v>3</v>
+      </c>
+      <c r="T23">
+        <v>612</v>
+      </c>
+      <c r="Y23">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="196">
+        <v>16777215</v>
+      </c>
+      <c r="AB23">
+        <v>1</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>678</v>
+      </c>
+      <c r="AU23">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>5</v>
+      </c>
+      <c r="C24">
+        <v>52</v>
+      </c>
+      <c r="D24" t="s">
+        <v>679</v>
+      </c>
+      <c r="E24" t="s">
+        <v>644</v>
+      </c>
+      <c r="F24" t="s">
+        <v>645</v>
+      </c>
+      <c r="G24" t="s">
+        <v>673</v>
+      </c>
+      <c r="H24" t="s">
+        <v>677</v>
+      </c>
+      <c r="J24" t="s">
+        <v>669</v>
+      </c>
+      <c r="M24" t="s">
+        <v>680</v>
+      </c>
+      <c r="N24" t="s">
+        <v>680</v>
+      </c>
+      <c r="O24" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q24">
+        <v>20</v>
+      </c>
+      <c r="R24">
+        <v>25</v>
+      </c>
+      <c r="S24">
+        <v>15</v>
+      </c>
+      <c r="T24">
+        <v>80</v>
+      </c>
+      <c r="Y24">
+        <v>1</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>681</v>
+      </c>
+      <c r="AU24">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>5</v>
+      </c>
+      <c r="C25">
+        <v>52</v>
+      </c>
+      <c r="D25" t="s">
+        <v>682</v>
+      </c>
+      <c r="E25" t="s">
+        <v>644</v>
+      </c>
+      <c r="F25" t="s">
+        <v>645</v>
+      </c>
+      <c r="G25" t="s">
+        <v>673</v>
+      </c>
+      <c r="H25" t="s">
+        <v>677</v>
+      </c>
+      <c r="J25" t="s">
+        <v>669</v>
+      </c>
+      <c r="M25" t="s">
+        <v>683</v>
+      </c>
+      <c r="N25" t="s">
+        <v>683</v>
+      </c>
+      <c r="O25" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q25">
+        <v>20</v>
+      </c>
+      <c r="R25">
+        <v>125</v>
+      </c>
+      <c r="S25">
+        <v>15</v>
+      </c>
+      <c r="T25">
+        <v>80</v>
+      </c>
+      <c r="Y25">
+        <v>1</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>684</v>
+      </c>
+      <c r="AU25">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18BEEE74-4728-4D6D-99AC-E7F728869473}">
   <sheetPr codeName="FP_0">
     <tabColor theme="8" tint="-0.499984740745262"/>
@@ -5937,7 +8819,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63960417-ABBC-480F-90E7-B3B99412AFA0}">
   <sheetPr codeName="RE_0">
     <tabColor theme="5" tint="-0.499984740745262"/>
@@ -17894,7 +20776,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B4A8F4D-412D-4EC9-8967-83E4E3D39320}">
   <sheetPr codeName="TP_0">
     <tabColor theme="9" tint="-0.499984740745262"/>
@@ -19587,2886 +22469,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B479FAB-4E2B-43CD-BC2C-4C84666C6FDA}">
-  <sheetPr codeName="FR_0">
-    <tabColor theme="6" tint="-0.499984740745262"/>
-  </sheetPr>
-  <dimension ref="A1:BD25"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" customWidth="1"/>
-    <col min="6" max="6" width="24" customWidth="1"/>
-    <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.5703125" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15" customWidth="1"/>
-    <col min="26" max="26" width="16.42578125" customWidth="1"/>
-    <col min="29" max="29" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="9.140625" style="194"/>
-    <col min="55" max="55" width="10.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="L1" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="M1" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="N1" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="O1" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="P1" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q1" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="R1" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="S1" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="T1" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="U1" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="V1" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="W1" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="X1" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y1" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z1" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA1" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB1" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC1" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="AD1" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="AE1" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF1" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="AG1" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="AH1" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="AI1" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="AJ1" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="AK1" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="AL1" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="AM1" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="AN1" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="AO1" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="AP1" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="AQ1" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="AR1" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="AS1" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="AT1" s="26" t="s">
-        <v>191</v>
-      </c>
-      <c r="AU1" s="26" t="s">
-        <v>192</v>
-      </c>
-      <c r="AV1" s="26" t="s">
-        <v>193</v>
-      </c>
-      <c r="AW1" s="26" t="s">
-        <v>194</v>
-      </c>
-      <c r="AX1" s="26" t="s">
-        <v>195</v>
-      </c>
-      <c r="AY1" s="26" t="s">
-        <v>196</v>
-      </c>
-      <c r="AZ1" s="26" t="s">
-        <v>197</v>
-      </c>
-      <c r="BA1" s="26" t="s">
-        <v>198</v>
-      </c>
-      <c r="BB1" s="26" t="s">
-        <v>199</v>
-      </c>
-      <c r="BC1" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="BD1" s="26" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="2" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B2">
-        <v>5</v>
-      </c>
-      <c r="C2">
-        <v>56</v>
-      </c>
-      <c r="D2" t="s">
-        <v>362</v>
-      </c>
-      <c r="E2" s="189" t="s">
-        <v>364</v>
-      </c>
-      <c r="F2" s="189" t="s">
-        <v>591</v>
-      </c>
-      <c r="G2" s="189" t="s">
-        <v>592</v>
-      </c>
-      <c r="H2" s="189" t="s">
-        <v>593</v>
-      </c>
-      <c r="I2" s="189" t="s">
-        <v>594</v>
-      </c>
-      <c r="J2" s="189" t="s">
-        <v>595</v>
-      </c>
-      <c r="K2" s="189" t="s">
-        <v>596</v>
-      </c>
-      <c r="L2" s="189" t="s">
-        <v>597</v>
-      </c>
-      <c r="M2" s="189" t="s">
-        <v>151</v>
-      </c>
-      <c r="N2" s="189" t="s">
-        <v>598</v>
-      </c>
-      <c r="O2" s="189" t="s">
-        <v>599</v>
-      </c>
-      <c r="P2" s="189" t="s">
-        <v>600</v>
-      </c>
-      <c r="Q2" s="189" t="s">
-        <v>601</v>
-      </c>
-      <c r="R2" s="189" t="s">
-        <v>602</v>
-      </c>
-      <c r="S2" s="189" t="s">
-        <v>603</v>
-      </c>
-      <c r="T2" s="189" t="s">
-        <v>604</v>
-      </c>
-      <c r="U2" s="189" t="s">
-        <v>605</v>
-      </c>
-      <c r="V2" s="189" t="s">
-        <v>606</v>
-      </c>
-      <c r="W2" s="189" t="s">
-        <v>607</v>
-      </c>
-      <c r="X2" s="189" t="s">
-        <v>608</v>
-      </c>
-      <c r="Y2" s="189" t="s">
-        <v>609</v>
-      </c>
-      <c r="Z2" s="189" t="s">
-        <v>610</v>
-      </c>
-      <c r="AA2" s="189" t="s">
-        <v>611</v>
-      </c>
-      <c r="AB2" s="189" t="s">
-        <v>612</v>
-      </c>
-      <c r="AC2" s="189" t="s">
-        <v>613</v>
-      </c>
-      <c r="AD2" s="189" t="s">
-        <v>614</v>
-      </c>
-      <c r="AE2" s="189" t="s">
-        <v>615</v>
-      </c>
-      <c r="AF2" s="189" t="s">
-        <v>616</v>
-      </c>
-      <c r="AG2" s="189" t="s">
-        <v>617</v>
-      </c>
-      <c r="AH2" s="189" t="s">
-        <v>618</v>
-      </c>
-      <c r="AI2" s="189" t="s">
-        <v>619</v>
-      </c>
-      <c r="AJ2" s="189" t="s">
-        <v>620</v>
-      </c>
-      <c r="AK2" s="189" t="s">
-        <v>621</v>
-      </c>
-      <c r="AL2" s="189" t="s">
-        <v>622</v>
-      </c>
-      <c r="AM2" s="189" t="s">
-        <v>623</v>
-      </c>
-      <c r="AN2" s="189" t="s">
-        <v>624</v>
-      </c>
-      <c r="AO2" s="189" t="s">
-        <v>625</v>
-      </c>
-      <c r="AP2" s="189" t="s">
-        <v>626</v>
-      </c>
-      <c r="AQ2" s="189" t="s">
-        <v>87</v>
-      </c>
-      <c r="AR2" s="189" t="s">
-        <v>627</v>
-      </c>
-      <c r="AS2" s="189" t="s">
-        <v>628</v>
-      </c>
-      <c r="AT2" s="189" t="s">
-        <v>629</v>
-      </c>
-      <c r="AU2" s="191" t="s">
-        <v>630</v>
-      </c>
-      <c r="AV2" s="189" t="s">
-        <v>631</v>
-      </c>
-      <c r="AW2" s="189" t="s">
-        <v>632</v>
-      </c>
-      <c r="AX2" s="189" t="s">
-        <v>633</v>
-      </c>
-      <c r="AY2" s="189" t="s">
-        <v>634</v>
-      </c>
-      <c r="AZ2" s="189" t="s">
-        <v>635</v>
-      </c>
-      <c r="BA2" s="189" t="s">
-        <v>636</v>
-      </c>
-      <c r="BB2" s="189" t="s">
-        <v>637</v>
-      </c>
-      <c r="BC2" s="189" t="s">
-        <v>638</v>
-      </c>
-      <c r="BD2" s="189" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="3" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B3">
-        <v>5</v>
-      </c>
-      <c r="C3">
-        <v>56</v>
-      </c>
-      <c r="D3" t="s">
-        <v>374</v>
-      </c>
-      <c r="E3" s="190" t="s">
-        <v>364</v>
-      </c>
-      <c r="F3" s="190" t="s">
-        <v>591</v>
-      </c>
-      <c r="G3" s="190" t="s">
-        <v>592</v>
-      </c>
-      <c r="H3" s="190" t="s">
-        <v>593</v>
-      </c>
-      <c r="I3" s="190" t="s">
-        <v>594</v>
-      </c>
-      <c r="J3" s="190" t="s">
-        <v>595</v>
-      </c>
-      <c r="K3" s="190" t="s">
-        <v>596</v>
-      </c>
-      <c r="L3" s="190" t="s">
-        <v>597</v>
-      </c>
-      <c r="M3" s="190" t="s">
-        <v>151</v>
-      </c>
-      <c r="N3" s="190" t="s">
-        <v>598</v>
-      </c>
-      <c r="O3" s="190" t="s">
-        <v>599</v>
-      </c>
-      <c r="P3" s="190" t="s">
-        <v>600</v>
-      </c>
-      <c r="Q3" s="190" t="s">
-        <v>601</v>
-      </c>
-      <c r="R3" s="190" t="s">
-        <v>602</v>
-      </c>
-      <c r="S3" s="190" t="s">
-        <v>603</v>
-      </c>
-      <c r="T3" s="190" t="s">
-        <v>604</v>
-      </c>
-      <c r="U3" s="190" t="s">
-        <v>605</v>
-      </c>
-      <c r="V3" s="190" t="s">
-        <v>606</v>
-      </c>
-      <c r="W3" s="190" t="s">
-        <v>607</v>
-      </c>
-      <c r="X3" s="190" t="s">
-        <v>608</v>
-      </c>
-      <c r="Y3" s="190" t="s">
-        <v>609</v>
-      </c>
-      <c r="Z3" s="190" t="s">
-        <v>610</v>
-      </c>
-      <c r="AA3" s="190" t="s">
-        <v>611</v>
-      </c>
-      <c r="AB3" s="190" t="s">
-        <v>612</v>
-      </c>
-      <c r="AC3" s="190" t="s">
-        <v>613</v>
-      </c>
-      <c r="AD3" s="190" t="s">
-        <v>614</v>
-      </c>
-      <c r="AE3" s="190" t="s">
-        <v>615</v>
-      </c>
-      <c r="AF3" s="190" t="s">
-        <v>616</v>
-      </c>
-      <c r="AG3" s="190" t="s">
-        <v>617</v>
-      </c>
-      <c r="AH3" s="190" t="s">
-        <v>618</v>
-      </c>
-      <c r="AI3" s="190" t="s">
-        <v>619</v>
-      </c>
-      <c r="AJ3" s="190" t="s">
-        <v>620</v>
-      </c>
-      <c r="AK3" s="190" t="s">
-        <v>621</v>
-      </c>
-      <c r="AL3" s="190" t="s">
-        <v>622</v>
-      </c>
-      <c r="AM3" s="190" t="s">
-        <v>623</v>
-      </c>
-      <c r="AN3" s="190" t="s">
-        <v>624</v>
-      </c>
-      <c r="AO3" s="190" t="s">
-        <v>625</v>
-      </c>
-      <c r="AP3" s="190" t="s">
-        <v>626</v>
-      </c>
-      <c r="AQ3" s="190" t="s">
-        <v>87</v>
-      </c>
-      <c r="AR3" s="190" t="s">
-        <v>627</v>
-      </c>
-      <c r="AS3" s="190" t="s">
-        <v>628</v>
-      </c>
-      <c r="AT3" s="192" t="s">
-        <v>629</v>
-      </c>
-      <c r="AU3" s="193" t="s">
-        <v>630</v>
-      </c>
-      <c r="AV3" s="192" t="s">
-        <v>631</v>
-      </c>
-      <c r="AW3" s="190" t="s">
-        <v>632</v>
-      </c>
-      <c r="AX3" s="190" t="s">
-        <v>633</v>
-      </c>
-      <c r="AY3" s="190" t="s">
-        <v>634</v>
-      </c>
-      <c r="AZ3" s="190" t="s">
-        <v>635</v>
-      </c>
-      <c r="BA3" s="190" t="s">
-        <v>636</v>
-      </c>
-      <c r="BB3" s="190" t="s">
-        <v>637</v>
-      </c>
-      <c r="BC3" s="189" t="s">
-        <v>638</v>
-      </c>
-      <c r="BD3" s="190" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="4" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B4">
-        <v>5</v>
-      </c>
-      <c r="C4">
-        <v>56</v>
-      </c>
-      <c r="D4" t="str">
-        <f t="shared" ref="D4:D18" si="0">"def_0_" &amp;E4</f>
-        <v>def_0_UserForm</v>
-      </c>
-      <c r="E4" t="s">
-        <v>640</v>
-      </c>
-      <c r="F4" t="s">
-        <v>641</v>
-      </c>
-      <c r="G4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="J4" t="b">
-        <v>1</v>
-      </c>
-      <c r="K4" t="b">
-        <v>1</v>
-      </c>
-      <c r="L4" t="b">
-        <v>1</v>
-      </c>
-      <c r="M4" t="b">
-        <v>1</v>
-      </c>
-      <c r="N4" t="b">
-        <v>1</v>
-      </c>
-      <c r="O4" t="b">
-        <v>1</v>
-      </c>
-      <c r="P4" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q4" t="b">
-        <v>1</v>
-      </c>
-      <c r="R4" t="b">
-        <v>1</v>
-      </c>
-      <c r="S4" t="b">
-        <v>1</v>
-      </c>
-      <c r="T4" t="b">
-        <v>1</v>
-      </c>
-      <c r="X4" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z4" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA4" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB4" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC4" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF4" t="b">
-        <v>1</v>
-      </c>
-      <c r="AG4" t="b">
-        <v>1</v>
-      </c>
-      <c r="AH4" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI4" t="b">
-        <v>1</v>
-      </c>
-      <c r="AJ4" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL4" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN4" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO4" t="b">
-        <v>1</v>
-      </c>
-      <c r="AQ4" t="b">
-        <v>1</v>
-      </c>
-      <c r="AT4" s="192" t="b">
-        <v>1</v>
-      </c>
-      <c r="AU4" s="194" t="b">
-        <v>1</v>
-      </c>
-      <c r="AV4" s="192" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW4" t="b">
-        <v>1</v>
-      </c>
-      <c r="AX4" t="b">
-        <v>1</v>
-      </c>
-      <c r="BC4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B5">
-        <v>5</v>
-      </c>
-      <c r="C5">
-        <v>56</v>
-      </c>
-      <c r="D5" t="str">
-        <f t="shared" si="0"/>
-        <v>def_0_CheckBox</v>
-      </c>
-      <c r="E5" t="s">
-        <v>94</v>
-      </c>
-      <c r="F5" t="s">
-        <v>642</v>
-      </c>
-      <c r="G5" t="b">
-        <v>1</v>
-      </c>
-      <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J5" t="b">
-        <v>1</v>
-      </c>
-      <c r="K5" t="b">
-        <v>1</v>
-      </c>
-      <c r="L5" t="b">
-        <v>1</v>
-      </c>
-      <c r="M5" t="b">
-        <v>1</v>
-      </c>
-      <c r="N5" t="b">
-        <v>1</v>
-      </c>
-      <c r="O5" t="b">
-        <v>1</v>
-      </c>
-      <c r="P5" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q5" t="b">
-        <v>1</v>
-      </c>
-      <c r="R5" t="b">
-        <v>1</v>
-      </c>
-      <c r="S5" t="b">
-        <v>1</v>
-      </c>
-      <c r="T5" t="b">
-        <v>1</v>
-      </c>
-      <c r="U5" t="b">
-        <v>1</v>
-      </c>
-      <c r="V5" t="b">
-        <v>1</v>
-      </c>
-      <c r="W5" t="b">
-        <v>1</v>
-      </c>
-      <c r="X5" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y5" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z5" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC5" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD5" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE5" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF5" t="b">
-        <v>1</v>
-      </c>
-      <c r="AG5" t="b">
-        <v>1</v>
-      </c>
-      <c r="AH5" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI5" t="b">
-        <v>1</v>
-      </c>
-      <c r="AJ5" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL5" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN5" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO5" t="b">
-        <v>1</v>
-      </c>
-      <c r="AQ5" t="b">
-        <v>1</v>
-      </c>
-      <c r="AR5" t="b">
-        <v>1</v>
-      </c>
-      <c r="AS5" t="b">
-        <v>1</v>
-      </c>
-      <c r="AT5" s="192" t="b">
-        <v>1</v>
-      </c>
-      <c r="AU5" s="194" t="b">
-        <v>1</v>
-      </c>
-      <c r="AV5" s="192" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW5" t="b">
-        <v>1</v>
-      </c>
-      <c r="AX5" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY5" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ5" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA5" t="b">
-        <v>1</v>
-      </c>
-      <c r="BB5" t="b">
-        <v>1</v>
-      </c>
-      <c r="BC5" t="b">
-        <v>1</v>
-      </c>
-      <c r="BD5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6">
-        <v>56</v>
-      </c>
-      <c r="D6" t="str">
-        <f t="shared" si="0"/>
-        <v>def_0_ComboBox</v>
-      </c>
-      <c r="E6" t="s">
-        <v>93</v>
-      </c>
-      <c r="F6" t="s">
-        <v>643</v>
-      </c>
-      <c r="G6" t="b">
-        <v>1</v>
-      </c>
-      <c r="H6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I6" t="b">
-        <v>1</v>
-      </c>
-      <c r="J6" t="b">
-        <v>1</v>
-      </c>
-      <c r="K6" t="b">
-        <v>1</v>
-      </c>
-      <c r="L6" t="b">
-        <v>1</v>
-      </c>
-      <c r="M6" t="b">
-        <v>1</v>
-      </c>
-      <c r="N6" t="b">
-        <v>1</v>
-      </c>
-      <c r="O6" t="b">
-        <v>1</v>
-      </c>
-      <c r="P6" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q6" t="b">
-        <v>1</v>
-      </c>
-      <c r="R6" t="b">
-        <v>1</v>
-      </c>
-      <c r="S6" t="b">
-        <v>1</v>
-      </c>
-      <c r="T6" t="b">
-        <v>1</v>
-      </c>
-      <c r="W6" t="b">
-        <v>1</v>
-      </c>
-      <c r="X6" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y6" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z6" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA6" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB6" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD6" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE6" t="b">
-        <v>1</v>
-      </c>
-      <c r="AG6" t="b">
-        <v>1</v>
-      </c>
-      <c r="AH6" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI6" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK6" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL6" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM6" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN6" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO6" t="b">
-        <v>1</v>
-      </c>
-      <c r="AP6" t="b">
-        <v>1</v>
-      </c>
-      <c r="AQ6" t="b">
-        <v>1</v>
-      </c>
-      <c r="AR6" t="b">
-        <v>1</v>
-      </c>
-      <c r="AT6" s="192" t="b">
-        <v>1</v>
-      </c>
-      <c r="AU6" s="194" t="b">
-        <v>1</v>
-      </c>
-      <c r="AV6" s="192" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW6" t="b">
-        <v>1</v>
-      </c>
-      <c r="AX6" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY6" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ6" t="b">
-        <v>1</v>
-      </c>
-      <c r="BC6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B7">
-        <v>5</v>
-      </c>
-      <c r="C7">
-        <v>56</v>
-      </c>
-      <c r="D7" t="str">
-        <f t="shared" si="0"/>
-        <v>def_0_CommandButton</v>
-      </c>
-      <c r="E7" t="s">
-        <v>644</v>
-      </c>
-      <c r="F7" t="s">
-        <v>645</v>
-      </c>
-      <c r="G7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" t="b">
-        <v>1</v>
-      </c>
-      <c r="J7" t="b">
-        <v>1</v>
-      </c>
-      <c r="K7" t="b">
-        <v>1</v>
-      </c>
-      <c r="L7" t="b">
-        <v>1</v>
-      </c>
-      <c r="M7" t="b">
-        <v>1</v>
-      </c>
-      <c r="N7" t="b">
-        <v>1</v>
-      </c>
-      <c r="O7" t="b">
-        <v>1</v>
-      </c>
-      <c r="P7" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q7" t="b">
-        <v>1</v>
-      </c>
-      <c r="R7" t="b">
-        <v>1</v>
-      </c>
-      <c r="S7" t="b">
-        <v>1</v>
-      </c>
-      <c r="T7" t="b">
-        <v>1</v>
-      </c>
-      <c r="U7" t="b">
-        <v>1</v>
-      </c>
-      <c r="W7" t="b">
-        <v>1</v>
-      </c>
-      <c r="X7" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y7" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z7" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC7" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD7" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF7" t="b">
-        <v>1</v>
-      </c>
-      <c r="AG7" t="b">
-        <v>1</v>
-      </c>
-      <c r="AH7" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI7" t="b">
-        <v>1</v>
-      </c>
-      <c r="AJ7" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL7" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN7" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO7" t="b">
-        <v>1</v>
-      </c>
-      <c r="AQ7" t="b">
-        <v>1</v>
-      </c>
-      <c r="AR7" t="b">
-        <v>1</v>
-      </c>
-      <c r="AS7" t="b">
-        <v>1</v>
-      </c>
-      <c r="AT7" s="192" t="b">
-        <v>1</v>
-      </c>
-      <c r="AU7" s="194" t="b">
-        <v>1</v>
-      </c>
-      <c r="AV7" s="192" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW7" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY7" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ7" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA7" t="b">
-        <v>1</v>
-      </c>
-      <c r="BB7" t="b">
-        <v>1</v>
-      </c>
-      <c r="BC7" t="b">
-        <v>1</v>
-      </c>
-      <c r="BD7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B8">
-        <v>5</v>
-      </c>
-      <c r="C8">
-        <v>56</v>
-      </c>
-      <c r="D8" t="str">
-        <f t="shared" si="0"/>
-        <v>def_0_Frame</v>
-      </c>
-      <c r="E8" t="s">
-        <v>646</v>
-      </c>
-      <c r="F8" t="s">
-        <v>647</v>
-      </c>
-      <c r="J8" t="b">
-        <v>1</v>
-      </c>
-      <c r="K8" t="b">
-        <v>1</v>
-      </c>
-      <c r="M8" t="b">
-        <v>1</v>
-      </c>
-      <c r="N8" t="b">
-        <v>1</v>
-      </c>
-      <c r="O8" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q8" t="b">
-        <v>1</v>
-      </c>
-      <c r="R8" t="b">
-        <v>1</v>
-      </c>
-      <c r="S8" t="b">
-        <v>1</v>
-      </c>
-      <c r="T8" t="b">
-        <v>1</v>
-      </c>
-      <c r="X8" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z8" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA8" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB8" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC8" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD8" t="b">
-        <v>1</v>
-      </c>
-      <c r="AQ8" t="b">
-        <v>1</v>
-      </c>
-      <c r="AT8" s="192"/>
-      <c r="AU8" s="194" t="b">
-        <v>1</v>
-      </c>
-      <c r="AV8" s="192"/>
-      <c r="AW8" t="b">
-        <v>1</v>
-      </c>
-      <c r="AX8" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY8" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ8" t="b">
-        <v>1</v>
-      </c>
-      <c r="BC8" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B9">
-        <v>5</v>
-      </c>
-      <c r="C9">
-        <v>56</v>
-      </c>
-      <c r="D9" t="str">
-        <f t="shared" si="0"/>
-        <v>def_0_Image</v>
-      </c>
-      <c r="E9" t="s">
-        <v>648</v>
-      </c>
-      <c r="F9" t="s">
-        <v>649</v>
-      </c>
-      <c r="G9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9" t="b">
-        <v>1</v>
-      </c>
-      <c r="J9" t="b">
-        <v>1</v>
-      </c>
-      <c r="K9" t="b">
-        <v>1</v>
-      </c>
-      <c r="L9" t="b">
-        <v>1</v>
-      </c>
-      <c r="M9" t="b">
-        <v>1</v>
-      </c>
-      <c r="N9" t="b">
-        <v>1</v>
-      </c>
-      <c r="O9" t="b">
-        <v>1</v>
-      </c>
-      <c r="P9" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q9" t="b">
-        <v>1</v>
-      </c>
-      <c r="R9" t="b">
-        <v>1</v>
-      </c>
-      <c r="S9" t="b">
-        <v>1</v>
-      </c>
-      <c r="T9" t="b">
-        <v>1</v>
-      </c>
-      <c r="W9" t="b">
-        <v>1</v>
-      </c>
-      <c r="X9" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y9" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA9" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB9" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD9" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF9" t="b">
-        <v>1</v>
-      </c>
-      <c r="AG9" t="b">
-        <v>1</v>
-      </c>
-      <c r="AH9" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI9" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL9" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN9" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO9" t="b">
-        <v>1</v>
-      </c>
-      <c r="AQ9" t="b">
-        <v>1</v>
-      </c>
-      <c r="AT9" s="192" t="b">
-        <v>1</v>
-      </c>
-      <c r="AV9" s="192" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW9" t="b">
-        <v>1</v>
-      </c>
-      <c r="AX9" t="b">
-        <v>1</v>
-      </c>
-      <c r="BC9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B10">
-        <v>5</v>
-      </c>
-      <c r="C10">
-        <v>56</v>
-      </c>
-      <c r="D10" t="str">
-        <f t="shared" si="0"/>
-        <v>def_0_Label</v>
-      </c>
-      <c r="E10" t="s">
-        <v>95</v>
-      </c>
-      <c r="F10" t="s">
-        <v>650</v>
-      </c>
-      <c r="G10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="J10" t="b">
-        <v>1</v>
-      </c>
-      <c r="K10" t="b">
-        <v>1</v>
-      </c>
-      <c r="L10" t="b">
-        <v>1</v>
-      </c>
-      <c r="M10" t="b">
-        <v>1</v>
-      </c>
-      <c r="N10" t="b">
-        <v>1</v>
-      </c>
-      <c r="O10" t="b">
-        <v>1</v>
-      </c>
-      <c r="P10" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q10" t="b">
-        <v>1</v>
-      </c>
-      <c r="R10" t="b">
-        <v>1</v>
-      </c>
-      <c r="S10" t="b">
-        <v>1</v>
-      </c>
-      <c r="T10" t="b">
-        <v>1</v>
-      </c>
-      <c r="U10" t="b">
-        <v>1</v>
-      </c>
-      <c r="W10" t="b">
-        <v>1</v>
-      </c>
-      <c r="X10" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y10" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z10" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA10" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB10" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC10" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD10" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF10" t="b">
-        <v>1</v>
-      </c>
-      <c r="AG10" t="b">
-        <v>1</v>
-      </c>
-      <c r="AH10" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI10" t="b">
-        <v>1</v>
-      </c>
-      <c r="AJ10" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL10" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN10" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO10" t="b">
-        <v>1</v>
-      </c>
-      <c r="AQ10" t="b">
-        <v>1</v>
-      </c>
-      <c r="AS10" t="b">
-        <v>1</v>
-      </c>
-      <c r="AT10" s="192" t="b">
-        <v>1</v>
-      </c>
-      <c r="AU10" s="194" t="b">
-        <v>1</v>
-      </c>
-      <c r="AV10" s="192" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW10" t="b">
-        <v>1</v>
-      </c>
-      <c r="AX10" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY10" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA10" t="b">
-        <v>1</v>
-      </c>
-      <c r="BB10" t="b">
-        <v>1</v>
-      </c>
-      <c r="BC10" t="b">
-        <v>1</v>
-      </c>
-      <c r="BD10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B11">
-        <v>5</v>
-      </c>
-      <c r="C11">
-        <v>56</v>
-      </c>
-      <c r="D11" t="str">
-        <f t="shared" si="0"/>
-        <v>def_0_ListBox</v>
-      </c>
-      <c r="E11" t="s">
-        <v>651</v>
-      </c>
-      <c r="F11" t="s">
-        <v>652</v>
-      </c>
-      <c r="J11" t="b">
-        <v>1</v>
-      </c>
-      <c r="K11" t="b">
-        <v>1</v>
-      </c>
-      <c r="M11" t="b">
-        <v>1</v>
-      </c>
-      <c r="N11" t="b">
-        <v>1</v>
-      </c>
-      <c r="O11" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q11" t="b">
-        <v>1</v>
-      </c>
-      <c r="R11" t="b">
-        <v>1</v>
-      </c>
-      <c r="S11" t="b">
-        <v>1</v>
-      </c>
-      <c r="T11" t="b">
-        <v>1</v>
-      </c>
-      <c r="X11" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AP11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AQ11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AR11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AT11" s="192"/>
-      <c r="AU11" s="194" t="b">
-        <v>1</v>
-      </c>
-      <c r="AV11" s="192"/>
-      <c r="AW11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AX11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ11" t="b">
-        <v>1</v>
-      </c>
-      <c r="BC11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B12">
-        <v>5</v>
-      </c>
-      <c r="C12">
-        <v>56</v>
-      </c>
-      <c r="D12" t="str">
-        <f t="shared" si="0"/>
-        <v>def_0_MultiPage</v>
-      </c>
-      <c r="E12" t="s">
-        <v>653</v>
-      </c>
-      <c r="F12" t="s">
-        <v>654</v>
-      </c>
-      <c r="I12" t="b">
-        <v>1</v>
-      </c>
-      <c r="J12" t="b">
-        <v>1</v>
-      </c>
-      <c r="K12" t="b">
-        <v>1</v>
-      </c>
-      <c r="M12" t="b">
-        <v>1</v>
-      </c>
-      <c r="N12" t="b">
-        <v>1</v>
-      </c>
-      <c r="O12" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q12" t="b">
-        <v>1</v>
-      </c>
-      <c r="R12" t="b">
-        <v>1</v>
-      </c>
-      <c r="S12" t="b">
-        <v>1</v>
-      </c>
-      <c r="T12" t="b">
-        <v>1</v>
-      </c>
-      <c r="X12" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z12" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD12" t="b">
-        <v>1</v>
-      </c>
-      <c r="AQ12" t="b">
-        <v>1</v>
-      </c>
-      <c r="AT12" s="192"/>
-      <c r="AU12" s="194" t="b">
-        <v>1</v>
-      </c>
-      <c r="AV12" s="192"/>
-      <c r="AY12" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ12" t="b">
-        <v>1</v>
-      </c>
-      <c r="BC12" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B13">
-        <v>5</v>
-      </c>
-      <c r="C13">
-        <v>56</v>
-      </c>
-      <c r="D13" t="str">
-        <f t="shared" si="0"/>
-        <v>def_0_OptionButton</v>
-      </c>
-      <c r="E13" t="s">
-        <v>655</v>
-      </c>
-      <c r="F13" t="s">
-        <v>656</v>
-      </c>
-      <c r="I13" t="b">
-        <v>1</v>
-      </c>
-      <c r="J13" t="b">
-        <v>1</v>
-      </c>
-      <c r="K13" t="b">
-        <v>1</v>
-      </c>
-      <c r="M13" t="b">
-        <v>1</v>
-      </c>
-      <c r="N13" t="b">
-        <v>1</v>
-      </c>
-      <c r="O13" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q13" t="b">
-        <v>1</v>
-      </c>
-      <c r="R13" t="b">
-        <v>1</v>
-      </c>
-      <c r="S13" t="b">
-        <v>1</v>
-      </c>
-      <c r="T13" t="b">
-        <v>1</v>
-      </c>
-      <c r="U13" t="b">
-        <v>1</v>
-      </c>
-      <c r="V13" t="b">
-        <v>1</v>
-      </c>
-      <c r="W13" t="b">
-        <v>1</v>
-      </c>
-      <c r="X13" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y13" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z13" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC13" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD13" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE13" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF13" t="b">
-        <v>1</v>
-      </c>
-      <c r="AG13" t="b">
-        <v>1</v>
-      </c>
-      <c r="AH13" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI13" t="b">
-        <v>1</v>
-      </c>
-      <c r="AJ13" t="b">
-        <v>1</v>
-      </c>
-      <c r="AQ13" t="b">
-        <v>1</v>
-      </c>
-      <c r="AR13" t="b">
-        <v>1</v>
-      </c>
-      <c r="AS13" t="b">
-        <v>1</v>
-      </c>
-      <c r="AT13" s="192"/>
-      <c r="AU13" s="194" t="b">
-        <v>1</v>
-      </c>
-      <c r="AV13" s="192"/>
-      <c r="AW13" t="b">
-        <v>1</v>
-      </c>
-      <c r="AX13" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY13" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ13" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA13" t="b">
-        <v>1</v>
-      </c>
-      <c r="BB13" t="b">
-        <v>1</v>
-      </c>
-      <c r="BC13" t="b">
-        <v>1</v>
-      </c>
-      <c r="BD13" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B14">
-        <v>5</v>
-      </c>
-      <c r="C14">
-        <v>56</v>
-      </c>
-      <c r="D14" t="str">
-        <f t="shared" si="0"/>
-        <v>def_0_ScrollBar</v>
-      </c>
-      <c r="E14" t="s">
-        <v>657</v>
-      </c>
-      <c r="F14" t="s">
-        <v>658</v>
-      </c>
-      <c r="I14" t="b">
-        <v>1</v>
-      </c>
-      <c r="J14" t="b">
-        <v>1</v>
-      </c>
-      <c r="K14" t="b">
-        <v>1</v>
-      </c>
-      <c r="M14" t="b">
-        <v>1</v>
-      </c>
-      <c r="N14" t="b">
-        <v>1</v>
-      </c>
-      <c r="O14" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q14" t="b">
-        <v>1</v>
-      </c>
-      <c r="R14" t="b">
-        <v>1</v>
-      </c>
-      <c r="S14" t="b">
-        <v>1</v>
-      </c>
-      <c r="T14" t="b">
-        <v>1</v>
-      </c>
-      <c r="X14" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z14" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD14" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE14" t="b">
-        <v>1</v>
-      </c>
-      <c r="AQ14" t="b">
-        <v>1</v>
-      </c>
-      <c r="AT14" s="192"/>
-      <c r="AU14" s="194" t="b">
-        <v>1</v>
-      </c>
-      <c r="AV14" s="192"/>
-      <c r="AW14" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY14" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ14" t="b">
-        <v>1</v>
-      </c>
-      <c r="BC14" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B15">
-        <v>5</v>
-      </c>
-      <c r="C15">
-        <v>56</v>
-      </c>
-      <c r="D15" t="str">
-        <f t="shared" si="0"/>
-        <v>def_0_SpinButton</v>
-      </c>
-      <c r="E15" t="s">
-        <v>659</v>
-      </c>
-      <c r="F15" t="s">
-        <v>660</v>
-      </c>
-      <c r="I15" t="b">
-        <v>1</v>
-      </c>
-      <c r="J15" t="b">
-        <v>1</v>
-      </c>
-      <c r="K15" t="b">
-        <v>1</v>
-      </c>
-      <c r="M15" t="b">
-        <v>1</v>
-      </c>
-      <c r="N15" t="b">
-        <v>1</v>
-      </c>
-      <c r="O15" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q15" t="b">
-        <v>1</v>
-      </c>
-      <c r="R15" t="b">
-        <v>1</v>
-      </c>
-      <c r="S15" t="b">
-        <v>1</v>
-      </c>
-      <c r="T15" t="b">
-        <v>1</v>
-      </c>
-      <c r="X15" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AQ15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AT15" s="192"/>
-      <c r="AU15" s="194" t="b">
-        <v>1</v>
-      </c>
-      <c r="AV15" s="192"/>
-      <c r="AW15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ15" t="b">
-        <v>1</v>
-      </c>
-      <c r="BC15" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B16">
-        <v>5</v>
-      </c>
-      <c r="C16">
-        <v>56</v>
-      </c>
-      <c r="D16" t="str">
-        <f t="shared" si="0"/>
-        <v>def_0_TabStrip</v>
-      </c>
-      <c r="E16" t="s">
-        <v>661</v>
-      </c>
-      <c r="F16" t="s">
-        <v>662</v>
-      </c>
-      <c r="I16" t="b">
-        <v>1</v>
-      </c>
-      <c r="J16" t="b">
-        <v>1</v>
-      </c>
-      <c r="K16" t="b">
-        <v>1</v>
-      </c>
-      <c r="M16" t="b">
-        <v>1</v>
-      </c>
-      <c r="N16" t="b">
-        <v>1</v>
-      </c>
-      <c r="O16" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q16" t="b">
-        <v>1</v>
-      </c>
-      <c r="R16" t="b">
-        <v>1</v>
-      </c>
-      <c r="S16" t="b">
-        <v>1</v>
-      </c>
-      <c r="T16" t="b">
-        <v>1</v>
-      </c>
-      <c r="X16" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AQ16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AT16" s="192"/>
-      <c r="AU16" s="194" t="b">
-        <v>1</v>
-      </c>
-      <c r="AV16" s="192"/>
-      <c r="AW16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ16" t="b">
-        <v>1</v>
-      </c>
-      <c r="BC16" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:56" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A17"/>
-      <c r="B17">
-        <v>5</v>
-      </c>
-      <c r="C17">
-        <v>56</v>
-      </c>
-      <c r="D17" t="str">
-        <f t="shared" si="0"/>
-        <v>def_0_TextBox</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>663</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>664</v>
-      </c>
-      <c r="G17" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="J17" t="b">
-        <v>1</v>
-      </c>
-      <c r="K17" t="b">
-        <v>1</v>
-      </c>
-      <c r="L17" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="M17" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="N17" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="O17" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="P17" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q17" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="R17" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="S17" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="T17" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="W17" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="X17" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y17" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z17" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA17" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB17" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD17" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE17" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="AG17" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="AH17" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI17" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL17" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN17" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO17" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="AQ17" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="AR17" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="AS17" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="AT17" s="192" t="b">
-        <v>1</v>
-      </c>
-      <c r="AU17" s="195" t="b">
-        <v>1</v>
-      </c>
-      <c r="AV17" s="192" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW17" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="AX17" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY17" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ17" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA17" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="BB17" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="BC17" t="b">
-        <v>1</v>
-      </c>
-      <c r="BD17" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B18">
-        <v>5</v>
-      </c>
-      <c r="C18">
-        <v>56</v>
-      </c>
-      <c r="D18" t="str">
-        <f t="shared" si="0"/>
-        <v>def_0_ToggleButton</v>
-      </c>
-      <c r="E18" t="s">
-        <v>665</v>
-      </c>
-      <c r="F18" t="s">
-        <v>666</v>
-      </c>
-      <c r="I18" t="b">
-        <v>1</v>
-      </c>
-      <c r="J18" t="b">
-        <v>1</v>
-      </c>
-      <c r="K18" t="b">
-        <v>1</v>
-      </c>
-      <c r="M18" t="b">
-        <v>1</v>
-      </c>
-      <c r="N18" t="b">
-        <v>1</v>
-      </c>
-      <c r="O18" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q18" t="b">
-        <v>1</v>
-      </c>
-      <c r="R18" t="b">
-        <v>1</v>
-      </c>
-      <c r="S18" t="b">
-        <v>1</v>
-      </c>
-      <c r="T18" t="b">
-        <v>1</v>
-      </c>
-      <c r="U18" t="b">
-        <v>1</v>
-      </c>
-      <c r="W18" t="b">
-        <v>1</v>
-      </c>
-      <c r="X18" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y18" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AG18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AH18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AJ18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AQ18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AR18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AS18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AT18" s="192"/>
-      <c r="AU18" s="194" t="b">
-        <v>1</v>
-      </c>
-      <c r="AV18" s="192"/>
-      <c r="AW18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ18" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA18" t="b">
-        <v>1</v>
-      </c>
-      <c r="BB18" t="b">
-        <v>1</v>
-      </c>
-      <c r="BC18" t="b">
-        <v>1</v>
-      </c>
-      <c r="BD18" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:56" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19">
-        <v>5</v>
-      </c>
-      <c r="C19">
-        <v>56</v>
-      </c>
-      <c r="D19" t="s">
-        <v>144</v>
-      </c>
-      <c r="E19" s="197" t="s">
-        <v>364</v>
-      </c>
-      <c r="F19" s="197" t="s">
-        <v>591</v>
-      </c>
-      <c r="G19" s="197" t="s">
-        <v>592</v>
-      </c>
-      <c r="H19" s="197" t="s">
-        <v>593</v>
-      </c>
-      <c r="I19" s="197" t="s">
-        <v>594</v>
-      </c>
-      <c r="J19" s="197" t="s">
-        <v>595</v>
-      </c>
-      <c r="K19" s="197" t="s">
-        <v>596</v>
-      </c>
-      <c r="L19" s="197" t="s">
-        <v>597</v>
-      </c>
-      <c r="M19" s="197" t="s">
-        <v>151</v>
-      </c>
-      <c r="N19" s="197" t="s">
-        <v>598</v>
-      </c>
-      <c r="O19" s="197" t="s">
-        <v>599</v>
-      </c>
-      <c r="P19" s="197" t="s">
-        <v>600</v>
-      </c>
-      <c r="Q19" s="197" t="s">
-        <v>601</v>
-      </c>
-      <c r="R19" s="197" t="s">
-        <v>602</v>
-      </c>
-      <c r="S19" s="197" t="s">
-        <v>603</v>
-      </c>
-      <c r="T19" s="197" t="s">
-        <v>604</v>
-      </c>
-      <c r="U19" s="197" t="s">
-        <v>605</v>
-      </c>
-      <c r="V19" s="197" t="s">
-        <v>606</v>
-      </c>
-      <c r="W19" s="197" t="s">
-        <v>607</v>
-      </c>
-      <c r="X19" s="197" t="s">
-        <v>608</v>
-      </c>
-      <c r="Y19" s="197" t="s">
-        <v>609</v>
-      </c>
-      <c r="Z19" s="197" t="s">
-        <v>610</v>
-      </c>
-      <c r="AA19" s="197" t="s">
-        <v>611</v>
-      </c>
-      <c r="AB19" s="197" t="s">
-        <v>612</v>
-      </c>
-      <c r="AC19" s="197" t="s">
-        <v>613</v>
-      </c>
-      <c r="AD19" s="197" t="s">
-        <v>614</v>
-      </c>
-      <c r="AE19" s="197" t="s">
-        <v>615</v>
-      </c>
-      <c r="AF19" s="197" t="s">
-        <v>616</v>
-      </c>
-      <c r="AG19" s="197" t="s">
-        <v>617</v>
-      </c>
-      <c r="AH19" s="197" t="s">
-        <v>618</v>
-      </c>
-      <c r="AI19" s="197" t="s">
-        <v>619</v>
-      </c>
-      <c r="AJ19" s="197" t="s">
-        <v>620</v>
-      </c>
-      <c r="AK19" s="197" t="s">
-        <v>621</v>
-      </c>
-      <c r="AL19" s="197" t="s">
-        <v>622</v>
-      </c>
-      <c r="AM19" s="197" t="s">
-        <v>623</v>
-      </c>
-      <c r="AN19" s="197" t="s">
-        <v>624</v>
-      </c>
-      <c r="AO19" s="197" t="s">
-        <v>625</v>
-      </c>
-      <c r="AP19" s="197" t="s">
-        <v>626</v>
-      </c>
-      <c r="AQ19" s="197" t="s">
-        <v>87</v>
-      </c>
-      <c r="AR19" s="197" t="s">
-        <v>627</v>
-      </c>
-      <c r="AS19" s="197" t="s">
-        <v>628</v>
-      </c>
-      <c r="AT19" s="197" t="s">
-        <v>629</v>
-      </c>
-      <c r="AU19" s="198" t="s">
-        <v>630</v>
-      </c>
-      <c r="AV19" s="197" t="s">
-        <v>631</v>
-      </c>
-      <c r="AW19" s="197" t="s">
-        <v>632</v>
-      </c>
-      <c r="AX19" s="197" t="s">
-        <v>633</v>
-      </c>
-      <c r="AY19" s="197" t="s">
-        <v>634</v>
-      </c>
-      <c r="AZ19" s="197" t="s">
-        <v>635</v>
-      </c>
-      <c r="BA19" s="197" t="s">
-        <v>636</v>
-      </c>
-      <c r="BB19" s="197" t="s">
-        <v>637</v>
-      </c>
-      <c r="BC19" s="197" t="s">
-        <v>638</v>
-      </c>
-      <c r="BD19" s="197" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="20" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="B20">
-        <v>5</v>
-      </c>
-      <c r="C20">
-        <v>56</v>
-      </c>
-      <c r="D20" t="s">
-        <v>124</v>
-      </c>
-      <c r="E20" s="190" t="s">
-        <v>364</v>
-      </c>
-      <c r="F20" s="190" t="s">
-        <v>591</v>
-      </c>
-      <c r="G20" s="190" t="s">
-        <v>592</v>
-      </c>
-      <c r="H20" s="190" t="s">
-        <v>593</v>
-      </c>
-      <c r="I20" s="190" t="s">
-        <v>594</v>
-      </c>
-      <c r="J20" s="190" t="s">
-        <v>595</v>
-      </c>
-      <c r="K20" s="190" t="s">
-        <v>596</v>
-      </c>
-      <c r="L20" s="190" t="s">
-        <v>597</v>
-      </c>
-      <c r="M20" s="190" t="s">
-        <v>151</v>
-      </c>
-      <c r="N20" s="190" t="s">
-        <v>598</v>
-      </c>
-      <c r="O20" s="190" t="s">
-        <v>599</v>
-      </c>
-      <c r="P20" s="190" t="s">
-        <v>600</v>
-      </c>
-      <c r="Q20" s="190" t="s">
-        <v>601</v>
-      </c>
-      <c r="R20" s="190" t="s">
-        <v>602</v>
-      </c>
-      <c r="S20" s="190" t="s">
-        <v>603</v>
-      </c>
-      <c r="T20" s="190" t="s">
-        <v>604</v>
-      </c>
-      <c r="U20" s="190" t="s">
-        <v>605</v>
-      </c>
-      <c r="V20" s="190" t="s">
-        <v>606</v>
-      </c>
-      <c r="W20" s="190" t="s">
-        <v>607</v>
-      </c>
-      <c r="X20" s="190" t="s">
-        <v>608</v>
-      </c>
-      <c r="Y20" s="190" t="s">
-        <v>609</v>
-      </c>
-      <c r="Z20" s="190" t="s">
-        <v>610</v>
-      </c>
-      <c r="AA20" s="190" t="s">
-        <v>611</v>
-      </c>
-      <c r="AB20" s="190" t="s">
-        <v>612</v>
-      </c>
-      <c r="AC20" s="190" t="s">
-        <v>613</v>
-      </c>
-      <c r="AD20" s="190" t="s">
-        <v>614</v>
-      </c>
-      <c r="AE20" s="190" t="s">
-        <v>615</v>
-      </c>
-      <c r="AF20" s="190" t="s">
-        <v>616</v>
-      </c>
-      <c r="AG20" s="190" t="s">
-        <v>617</v>
-      </c>
-      <c r="AH20" s="190" t="s">
-        <v>618</v>
-      </c>
-      <c r="AI20" s="190" t="s">
-        <v>619</v>
-      </c>
-      <c r="AJ20" s="190" t="s">
-        <v>620</v>
-      </c>
-      <c r="AK20" s="190" t="s">
-        <v>621</v>
-      </c>
-      <c r="AL20" s="190" t="s">
-        <v>622</v>
-      </c>
-      <c r="AM20" s="190" t="s">
-        <v>623</v>
-      </c>
-      <c r="AN20" s="190" t="s">
-        <v>624</v>
-      </c>
-      <c r="AO20" s="190" t="s">
-        <v>625</v>
-      </c>
-      <c r="AP20" s="190" t="s">
-        <v>626</v>
-      </c>
-      <c r="AQ20" s="190" t="s">
-        <v>87</v>
-      </c>
-      <c r="AR20" s="190" t="s">
-        <v>627</v>
-      </c>
-      <c r="AS20" s="190" t="s">
-        <v>628</v>
-      </c>
-      <c r="AT20" s="190" t="s">
-        <v>629</v>
-      </c>
-      <c r="AU20" s="193" t="s">
-        <v>630</v>
-      </c>
-      <c r="AV20" s="190" t="s">
-        <v>631</v>
-      </c>
-      <c r="AW20" s="190" t="s">
-        <v>632</v>
-      </c>
-      <c r="AX20" s="190" t="s">
-        <v>633</v>
-      </c>
-      <c r="AY20" s="190" t="s">
-        <v>634</v>
-      </c>
-      <c r="AZ20" s="190" t="s">
-        <v>635</v>
-      </c>
-      <c r="BA20" s="190" t="s">
-        <v>636</v>
-      </c>
-      <c r="BB20" s="190" t="s">
-        <v>637</v>
-      </c>
-      <c r="BC20" s="189" t="s">
-        <v>638</v>
-      </c>
-      <c r="BD20" s="190" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="21" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="B21">
-        <v>5</v>
-      </c>
-      <c r="C21">
-        <v>56</v>
-      </c>
-      <c r="D21" t="s">
-        <v>667</v>
-      </c>
-      <c r="E21" t="s">
-        <v>640</v>
-      </c>
-      <c r="F21" t="s">
-        <v>641</v>
-      </c>
-      <c r="G21" t="s">
-        <v>668</v>
-      </c>
-      <c r="J21" t="s">
-        <v>669</v>
-      </c>
-      <c r="N21" t="s">
-        <v>668</v>
-      </c>
-      <c r="O21" t="b">
-        <v>1</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>960</v>
-      </c>
-      <c r="T21">
-        <v>640</v>
-      </c>
-      <c r="AA21">
-        <v>-2147483630</v>
-      </c>
-      <c r="AB21">
-        <v>0</v>
-      </c>
-      <c r="AC21" t="s">
-        <v>670</v>
-      </c>
-      <c r="AF21" t="s">
-        <v>671</v>
-      </c>
-      <c r="AH21">
-        <v>1</v>
-      </c>
-      <c r="AI21">
-        <v>0</v>
-      </c>
-      <c r="AQ21" t="b">
-        <v>1</v>
-      </c>
-      <c r="AU21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="B22">
-        <v>5</v>
-      </c>
-      <c r="C22">
-        <v>56</v>
-      </c>
-      <c r="D22" t="s">
-        <v>672</v>
-      </c>
-      <c r="E22" t="s">
-        <v>640</v>
-      </c>
-      <c r="F22" t="s">
-        <v>641</v>
-      </c>
-      <c r="G22" t="s">
-        <v>673</v>
-      </c>
-      <c r="J22" t="s">
-        <v>669</v>
-      </c>
-      <c r="N22" t="s">
-        <v>673</v>
-      </c>
-      <c r="O22" t="b">
-        <v>1</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>480</v>
-      </c>
-      <c r="T22">
-        <v>640</v>
-      </c>
-      <c r="AA22">
-        <v>-2147483630</v>
-      </c>
-      <c r="AB22">
-        <v>0</v>
-      </c>
-      <c r="AC22" t="s">
-        <v>674</v>
-      </c>
-      <c r="AF22" t="s">
-        <v>675</v>
-      </c>
-      <c r="AH22">
-        <v>1</v>
-      </c>
-      <c r="AI22">
-        <v>0</v>
-      </c>
-      <c r="AQ22" t="b">
-        <v>1</v>
-      </c>
-      <c r="AU22">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="B23">
-        <v>5</v>
-      </c>
-      <c r="C23">
-        <v>56</v>
-      </c>
-      <c r="D23" t="s">
-        <v>676</v>
-      </c>
-      <c r="E23" t="s">
-        <v>95</v>
-      </c>
-      <c r="F23" t="s">
-        <v>650</v>
-      </c>
-      <c r="G23" t="s">
-        <v>673</v>
-      </c>
-      <c r="H23" t="s">
-        <v>673</v>
-      </c>
-      <c r="M23" t="s">
-        <v>677</v>
-      </c>
-      <c r="N23" t="s">
-        <v>677</v>
-      </c>
-      <c r="O23" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q23">
-        <v>37</v>
-      </c>
-      <c r="R23">
-        <v>8</v>
-      </c>
-      <c r="S23">
-        <v>3</v>
-      </c>
-      <c r="T23">
-        <v>612</v>
-      </c>
-      <c r="Y23">
-        <v>0</v>
-      </c>
-      <c r="Z23" s="196">
-        <v>16777215</v>
-      </c>
-      <c r="AB23">
-        <v>1</v>
-      </c>
-      <c r="AC23" t="s">
-        <v>678</v>
-      </c>
-      <c r="AU23">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="B24">
-        <v>5</v>
-      </c>
-      <c r="C24">
-        <v>56</v>
-      </c>
-      <c r="D24" t="s">
-        <v>679</v>
-      </c>
-      <c r="E24" t="s">
-        <v>644</v>
-      </c>
-      <c r="F24" t="s">
-        <v>645</v>
-      </c>
-      <c r="G24" t="s">
-        <v>673</v>
-      </c>
-      <c r="H24" t="s">
-        <v>677</v>
-      </c>
-      <c r="J24" t="s">
-        <v>669</v>
-      </c>
-      <c r="M24" t="s">
-        <v>680</v>
-      </c>
-      <c r="N24" t="s">
-        <v>680</v>
-      </c>
-      <c r="O24" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q24">
-        <v>20</v>
-      </c>
-      <c r="R24">
-        <v>25</v>
-      </c>
-      <c r="S24">
-        <v>15</v>
-      </c>
-      <c r="T24">
-        <v>80</v>
-      </c>
-      <c r="Y24">
-        <v>1</v>
-      </c>
-      <c r="AC24" t="s">
-        <v>681</v>
-      </c>
-      <c r="AU24">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="B25">
-        <v>5</v>
-      </c>
-      <c r="C25">
-        <v>56</v>
-      </c>
-      <c r="D25" t="s">
-        <v>682</v>
-      </c>
-      <c r="E25" t="s">
-        <v>644</v>
-      </c>
-      <c r="F25" t="s">
-        <v>645</v>
-      </c>
-      <c r="G25" t="s">
-        <v>673</v>
-      </c>
-      <c r="H25" t="s">
-        <v>677</v>
-      </c>
-      <c r="J25" t="s">
-        <v>669</v>
-      </c>
-      <c r="M25" t="s">
-        <v>683</v>
-      </c>
-      <c r="N25" t="s">
-        <v>683</v>
-      </c>
-      <c r="O25" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q25">
-        <v>20</v>
-      </c>
-      <c r="R25">
-        <v>125</v>
-      </c>
-      <c r="S25">
-        <v>15</v>
-      </c>
-      <c r="T25">
-        <v>80</v>
-      </c>
-      <c r="Y25">
-        <v>1</v>
-      </c>
-      <c r="AC25" t="s">
-        <v>684</v>
-      </c>
-      <c r="AU25">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>